--- a/apps/load_data/2019/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HHY0619\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\HHY0619\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4C6B93-BD92-437D-B897-7398C1901FF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D39A69-C4A4-4B1C-BDB1-1CDE9E86CC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15405" windowHeight="4425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$287</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$287</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12414" uniqueCount="3329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12158" uniqueCount="3308">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7219,9 +7220,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8494,9 +8492,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8839,9 +8834,6 @@
     <t>09842316</t>
   </si>
   <si>
-    <t>SUSPENSION</t>
-  </si>
-  <si>
     <t>7306280HYLAM000</t>
   </si>
   <si>
@@ -9956,66 +9948,12 @@
   </si>
   <si>
     <t>1111gfhcag111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>0001A         3</t>
-  </si>
-  <si>
-    <t>Fjhjfeeh111g1d1f1êjmhikjefjag</t>
-  </si>
-  <si>
-    <t>1032     90000     90000</t>
-  </si>
-  <si>
-    <t>11111mcbaa111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>0002A         2</t>
-  </si>
-  <si>
-    <t>Mjhkieec111g1d1f1êjmhjolheeab</t>
-  </si>
-  <si>
-    <t>1047    122714    122714</t>
-  </si>
-  <si>
-    <t>1111ffeibe111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>0003A         2</t>
-  </si>
-  <si>
-    <t>Fjhjfeeh111g1d1f1àjmhkhhhljgg</t>
-  </si>
-  <si>
-    <t>1047     96778     96778</t>
-  </si>
-  <si>
-    <t>11111miihi111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>0004A         2</t>
-  </si>
-  <si>
-    <t>Fkilneêy111g1d1f1êjmhjolhedbc</t>
-  </si>
-  <si>
-    <t>0005A         2</t>
-  </si>
-  <si>
-    <t>kiiifxw11bg1d1f11jmhiojjcdcb</t>
-  </si>
-  <si>
-    <t>1047     52516     52516</t>
-  </si>
-  <si>
-    <t>11111iegbg111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10855,11 +10793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI292"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CI287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="P293" sqref="P293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD242" sqref="AD242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10877,7 +10815,7 @@
     <col min="11" max="11" width="45.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" customWidth="1"/>
@@ -45903,12 +45841,7 @@
       <c r="AB190" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AC190" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD190" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC190" s="3"/>
       <c r="AF190" s="1" t="s">
         <v>105</v>
       </c>
@@ -45961,7 +45894,7 @@
         <v>19</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -45973,10 +45906,10 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -45991,13 +45924,13 @@
         <v>159</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BS190" s="3">
         <v>36225</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46018,19 +45951,19 @@
         <v>110</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2407</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2408</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -46068,13 +46001,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46106,12 +46039,7 @@
       <c r="AB191" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="AC191" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD191" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC191" s="3"/>
       <c r="AF191" s="1" t="s">
         <v>105</v>
       </c>
@@ -46158,7 +46086,7 @@
         <v>110</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BB191" s="1">
         <v>6</v>
@@ -46167,7 +46095,7 @@
         <v>19</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -46179,10 +46107,10 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2415</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>118</v>
@@ -46194,13 +46122,13 @@
         <v>101</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BS191" s="3">
         <v>36949</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -46224,19 +46152,19 @@
         <v>110</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>2067</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="CG191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -46274,13 +46202,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46312,12 +46240,7 @@
       <c r="AB192" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="AC192" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD192" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC192" s="3"/>
       <c r="AF192" s="1" t="s">
         <v>105</v>
       </c>
@@ -46364,7 +46287,7 @@
         <v>110</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BB192" s="1">
         <v>6</v>
@@ -46373,7 +46296,7 @@
         <v>19</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -46385,10 +46308,10 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -46400,13 +46323,13 @@
         <v>101</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BS192" s="3">
         <v>36825</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -46430,19 +46353,19 @@
         <v>110</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="CG192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>130</v>
@@ -46480,13 +46403,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46515,12 +46438,7 @@
       <c r="AA193" s="1">
         <v>0</v>
       </c>
-      <c r="AC193" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD193" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC193" s="3"/>
       <c r="AF193" s="1" t="s">
         <v>105</v>
       </c>
@@ -46570,7 +46488,7 @@
         <v>110</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BB193" s="1">
         <v>6</v>
@@ -46579,7 +46497,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -46591,7 +46509,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>591</v>
@@ -46603,7 +46521,7 @@
         <v>104</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -46621,16 +46539,16 @@
         <v>110</v>
       </c>
       <c r="CC193" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="CD193" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>598</v>
@@ -46671,13 +46589,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -46709,12 +46627,7 @@
       <c r="AB194" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>105</v>
       </c>
@@ -46764,7 +46677,7 @@
         <v>110</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BB194" s="1">
         <v>6</v>
@@ -46773,7 +46686,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -46785,13 +46698,13 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -46812,13 +46725,13 @@
         <v>682</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>130</v>
@@ -46859,13 +46772,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -46894,12 +46807,7 @@
       <c r="AA195" s="1">
         <v>0</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>105</v>
       </c>
@@ -46949,7 +46857,7 @@
         <v>110</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BB195" s="1">
         <v>6</v>
@@ -46958,7 +46866,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -46970,7 +46878,7 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>953</v>
@@ -46982,7 +46890,7 @@
         <v>104</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47000,16 +46908,16 @@
         <v>110</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="CD195" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="CD195" s="1" t="s">
-        <v>2463</v>
-      </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>959</v>
@@ -47050,13 +46958,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47091,12 +46999,7 @@
       <c r="AA196" s="1">
         <v>0</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>105</v>
       </c>
@@ -47143,7 +47046,7 @@
         <v>110</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BB196" s="1">
         <v>6</v>
@@ -47152,7 +47055,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47164,7 +47067,7 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>416</v>
@@ -47179,13 +47082,13 @@
         <v>119</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BS196" s="3">
         <v>35243</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47203,16 +47106,16 @@
         <v>110</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>423</v>
@@ -47253,13 +47156,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47288,12 +47191,7 @@
       <c r="AA197" s="1">
         <v>0</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>105</v>
       </c>
@@ -47343,7 +47241,7 @@
         <v>110</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB197" s="1">
         <v>6</v>
@@ -47352,7 +47250,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47364,7 +47262,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>591</v>
@@ -47376,7 +47274,7 @@
         <v>104</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47394,16 +47292,16 @@
         <v>110</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>598</v>
@@ -47444,13 +47342,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47479,12 +47377,7 @@
       <c r="AA198" s="1">
         <v>0</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>105</v>
       </c>
@@ -47534,7 +47427,7 @@
         <v>110</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BB198" s="1">
         <v>6</v>
@@ -47543,7 +47436,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -47555,7 +47448,7 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>591</v>
@@ -47570,7 +47463,7 @@
         <v>159</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -47588,16 +47481,16 @@
         <v>110</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2497</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>598</v>
@@ -47638,13 +47531,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47673,12 +47566,7 @@
       <c r="AA199" s="1">
         <v>0</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>105</v>
       </c>
@@ -47725,7 +47613,7 @@
         <v>110</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BB199" s="1">
         <v>6</v>
@@ -47734,7 +47622,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -47746,7 +47634,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>456</v>
@@ -47761,13 +47649,13 @@
         <v>218</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BS199" s="3">
         <v>34307</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -47785,16 +47673,16 @@
         <v>110</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="CD199" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE199" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="CG199" s="1" t="s">
         <v>2509</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2510</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>463</v>
@@ -47835,13 +47723,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -47873,12 +47761,7 @@
       <c r="AA200" s="1">
         <v>0</v>
       </c>
-      <c r="AC200" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>105</v>
       </c>
@@ -47928,7 +47811,7 @@
         <v>110</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BB200" s="1">
         <v>6</v>
@@ -47937,7 +47820,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -47949,7 +47832,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -47958,7 +47841,7 @@
         <v>104</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -47979,16 +47862,16 @@
         <v>110</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>130</v>
@@ -48029,13 +47912,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48064,12 +47947,7 @@
       <c r="AA201" s="1">
         <v>0</v>
       </c>
-      <c r="AC201" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>2398</v>
-      </c>
+      <c r="AC201" s="3"/>
       <c r="AF201" s="1" t="s">
         <v>105</v>
       </c>
@@ -48116,7 +47994,7 @@
         <v>110</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BB201" s="1">
         <v>6</v>
@@ -48125,7 +48003,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48137,7 +48015,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>591</v>
@@ -48152,13 +48030,13 @@
         <v>119</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BS201" s="3">
         <v>35950</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48176,16 +48054,16 @@
         <v>110</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>1870</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>598</v>
@@ -48226,10 +48104,10 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>716</v>
@@ -48310,7 +48188,7 @@
         <v>719</v>
       </c>
       <c r="CE202" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="203" spans="1:87" x14ac:dyDescent="0.25">
@@ -48324,10 +48202,10 @@
         <v>94</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>716</v>
@@ -48396,7 +48274,7 @@
         <v>0</v>
       </c>
       <c r="BZ203" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="CA203" s="1" t="s">
         <v>124</v>
@@ -48408,7 +48286,7 @@
         <v>719</v>
       </c>
       <c r="CE203" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="204" spans="1:87" x14ac:dyDescent="0.25">
@@ -48443,13 +48321,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48530,7 +48408,7 @@
         <v>110</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB204" s="1">
         <v>6</v>
@@ -48539,7 +48417,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -48551,7 +48429,7 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>1162</v>
@@ -48566,7 +48444,7 @@
         <v>159</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -48584,16 +48462,16 @@
         <v>110</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>420</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>1168</v>
@@ -48634,13 +48512,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -48715,7 +48593,7 @@
         <v>110</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB205" s="1">
         <v>6</v>
@@ -48724,7 +48602,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -48736,7 +48614,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1921</v>
@@ -48751,13 +48629,13 @@
         <v>218</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BS205" s="3">
         <v>36099</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -48775,16 +48653,16 @@
         <v>110</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1927</v>
@@ -48825,13 +48703,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -48906,7 +48784,7 @@
         <v>110</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB206" s="1">
         <v>6</v>
@@ -48915,7 +48793,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -48927,10 +48805,10 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -48942,13 +48820,13 @@
         <v>101</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BS206" s="3">
         <v>37735</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -48966,19 +48844,19 @@
         <v>110</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CG206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49016,13 +48894,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49100,7 +48978,7 @@
         <v>110</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BB207" s="1">
         <v>6</v>
@@ -49109,7 +48987,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49121,7 +48999,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1162</v>
@@ -49133,7 +49011,7 @@
         <v>104</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49151,16 +49029,16 @@
         <v>110</v>
       </c>
       <c r="CC207" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="CD207" s="1" t="s">
         <v>892</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="CG207" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1168</v>
@@ -49201,13 +49079,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49240,7 +49118,7 @@
         <v>105</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>1988</v>
@@ -49285,7 +49163,7 @@
         <v>110</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BB208" s="1">
         <v>6</v>
@@ -49294,7 +49172,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49306,7 +49184,7 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BI208" s="1" t="s">
         <v>1060</v>
@@ -49318,7 +49196,7 @@
         <v>104</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49339,13 +49217,13 @@
         <v>1639</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="CE208" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>1066</v>
@@ -49386,13 +49264,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49470,7 +49348,7 @@
         <v>110</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BB209" s="1">
         <v>6</v>
@@ -49479,7 +49357,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49491,7 +49369,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>2175</v>
@@ -49506,13 +49384,13 @@
         <v>101</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BS209" s="3">
         <v>43602</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -49536,10 +49414,10 @@
         <v>978</v>
       </c>
       <c r="CE209" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>2182</v>
@@ -49580,13 +49458,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -49664,7 +49542,7 @@
         <v>110</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BB210" s="1">
         <v>6</v>
@@ -49673,7 +49551,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -49685,7 +49563,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>591</v>
@@ -49697,7 +49575,7 @@
         <v>104</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -49715,16 +49593,16 @@
         <v>110</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>598</v>
@@ -49765,13 +49643,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -49810,7 +49688,7 @@
         <v>42247</v>
       </c>
       <c r="AD211" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="AF211" s="1" t="s">
         <v>105</v>
@@ -49864,7 +49742,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -49876,10 +49754,10 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>118</v>
@@ -49891,13 +49769,13 @@
         <v>218</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BS211" s="3">
         <v>36580</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -49918,7 +49796,7 @@
         <v>110</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>292</v>
@@ -49927,10 +49805,10 @@
         <v>1668</v>
       </c>
       <c r="CG211" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="CH211" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="CH211" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="CI211" s="1" t="s">
         <v>130</v>
@@ -49968,13 +49846,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -50055,7 +49933,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50067,7 +49945,7 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1060</v>
@@ -50082,13 +49960,13 @@
         <v>119</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BS212" s="3">
         <v>37747</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50112,10 +49990,10 @@
         <v>670</v>
       </c>
       <c r="CE212" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="CG212" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>1066</v>
@@ -50156,13 +50034,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50246,7 +50124,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50258,7 +50136,7 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>118</v>
@@ -50267,7 +50145,7 @@
         <v>104</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50285,16 +50163,16 @@
         <v>110</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CD213" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="CD213" s="1" t="s">
+      <c r="CE213" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CG213" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="CH213" s="1" t="s">
         <v>130</v>
@@ -50335,13 +50213,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2649</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -50425,7 +50303,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50437,7 +50315,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>953</v>
@@ -50449,7 +50327,7 @@
         <v>104</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50467,16 +50345,16 @@
         <v>110</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="CE214" s="1" t="s">
+      <c r="CG214" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>959</v>
@@ -50517,13 +50395,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -50604,7 +50482,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -50616,10 +50494,10 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2662</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>118</v>
@@ -50631,13 +50509,13 @@
         <v>101</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BS215" s="3">
         <v>37334</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -50658,16 +50536,16 @@
         <v>514</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="CG215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>130</v>
@@ -50705,13 +50583,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -50792,7 +50670,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -50804,10 +50682,10 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>118</v>
@@ -50819,13 +50697,13 @@
         <v>101</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BS216" s="3">
         <v>37904</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -50846,16 +50724,16 @@
         <v>978</v>
       </c>
       <c r="CD216" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="CG216" s="1" t="s">
+      <c r="CH216" s="1" t="s">
         <v>2679</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>130</v>
@@ -50893,13 +50771,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -50980,7 +50858,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -50992,7 +50870,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1162</v>
@@ -51007,13 +50885,13 @@
         <v>119</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BS217" s="3">
         <v>36111</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51031,16 +50909,16 @@
         <v>110</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="CE217" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="CG217" s="1" t="s">
         <v>2689</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2690</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>1168</v>
@@ -51081,13 +50959,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51168,7 +51046,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51180,10 +51058,10 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51195,13 +51073,13 @@
         <v>119</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BS218" s="3">
         <v>37785</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51219,19 +51097,19 @@
         <v>110</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="CG218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2702</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2703</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>130</v>
@@ -51269,13 +51147,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2705</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2706</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51359,7 +51237,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51371,7 +51249,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1943</v>
@@ -51383,7 +51261,7 @@
         <v>104</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51404,13 +51282,13 @@
         <v>1301</v>
       </c>
       <c r="CD219" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2711</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2712</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1950</v>
@@ -51451,13 +51329,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51535,7 +51413,7 @@
         <v>110</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BB220" s="1">
         <v>6</v>
@@ -51544,7 +51422,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51556,7 +51434,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>118</v>
@@ -51565,7 +51443,7 @@
         <v>104</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51583,16 +51461,16 @@
         <v>110</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>130</v>
@@ -51633,13 +51511,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51717,7 +51595,7 @@
         <v>110</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BB221" s="1">
         <v>6</v>
@@ -51726,7 +51604,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -51738,7 +51616,7 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>1060</v>
@@ -51750,7 +51628,7 @@
         <v>104</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -51768,16 +51646,16 @@
         <v>110</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="CE221" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="CG221" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1066</v>
@@ -51818,13 +51696,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -51902,7 +51780,7 @@
         <v>110</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BB222" s="1">
         <v>6</v>
@@ -51911,7 +51789,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -51923,7 +51801,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>118</v>
@@ -51932,7 +51810,7 @@
         <v>104</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -51953,13 +51831,13 @@
         <v>1152</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2741</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>130</v>
@@ -52000,13 +51878,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52084,7 +51962,7 @@
         <v>110</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BB223" s="1">
         <v>6</v>
@@ -52093,7 +51971,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52105,7 +51983,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>1943</v>
@@ -52120,13 +51998,13 @@
         <v>159</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BS223" s="3">
         <v>37513</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52144,16 +52022,16 @@
         <v>110</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE223" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>1950</v>
@@ -52194,13 +52072,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52281,7 +52159,7 @@
         <v>19</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52293,10 +52171,10 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="BI224" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="BI224" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52308,13 +52186,13 @@
         <v>101</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="BS224" s="3">
         <v>41024</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52332,19 +52210,19 @@
         <v>110</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="CE224" s="1" t="s">
+      <c r="CG224" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="CG224" s="1" t="s">
+      <c r="CH224" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="CH224" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52382,13 +52260,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52421,7 +52299,7 @@
         <v>105</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>1988</v>
@@ -52445,28 +52323,28 @@
         <v>109</v>
       </c>
       <c r="AQ225" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AR225" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS225" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT225" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU225" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV225" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY225" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ225" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="AR225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY225" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ225" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="BB225" s="1">
         <v>6</v>
@@ -52475,7 +52353,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52487,7 +52365,7 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>1943</v>
@@ -52502,13 +52380,13 @@
         <v>119</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BS225" s="3">
         <v>34808</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52526,16 +52404,16 @@
         <v>110</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="CD225" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="CD225" s="1" t="s">
+      <c r="CE225" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CG225" s="1" t="s">
         <v>2778</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2779</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>1950</v>
@@ -52576,13 +52454,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2781</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2782</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -52657,7 +52535,7 @@
         <v>110</v>
       </c>
       <c r="AZ226" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BB226" s="1">
         <v>6</v>
@@ -52666,7 +52544,7 @@
         <v>19</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -52678,10 +52556,10 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="BI226" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="BI226" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -52693,13 +52571,13 @@
         <v>101</v>
       </c>
       <c r="BR226" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="BS226" s="3">
         <v>37336</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -52717,19 +52595,19 @@
         <v>110</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="CD226" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="CD226" s="1" t="s">
+      <c r="CE226" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="CE226" s="1" t="s">
+      <c r="CG226" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="CG226" s="1" t="s">
+      <c r="CH226" s="1" t="s">
         <v>2792</v>
-      </c>
-      <c r="CH226" s="1" t="s">
-        <v>2793</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>130</v>
@@ -52767,13 +52645,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2795</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2796</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -52851,7 +52729,7 @@
         <v>110</v>
       </c>
       <c r="AZ227" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="BB227" s="1">
         <v>6</v>
@@ -52860,7 +52738,7 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -52872,7 +52750,7 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="BI227" s="1" t="s">
         <v>591</v>
@@ -52884,7 +52762,7 @@
         <v>104</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -52902,16 +52780,16 @@
         <v>110</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="CD227" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="CD227" s="1" t="s">
+      <c r="CE227" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="CE227" s="1" t="s">
+      <c r="CG227" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2804</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>598</v>
@@ -52952,13 +52830,13 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2806</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2807</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
@@ -53042,7 +52920,7 @@
         <v>19</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>113</v>
@@ -53054,7 +52932,7 @@
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53063,7 +52941,7 @@
         <v>104</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53081,16 +52959,16 @@
         <v>110</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="CD228" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="CD228" s="1" t="s">
+      <c r="CE228" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="CE228" s="1" t="s">
+      <c r="CG228" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53113,7 +52991,7 @@
         <v>90</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>92</v>
@@ -53125,16 +53003,16 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2817</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>2818</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>109</v>
@@ -53203,7 +53081,7 @@
         <v>0</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>124</v>
@@ -53215,7 +53093,7 @@
         <v>719</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="230" spans="1:87" x14ac:dyDescent="0.25">
@@ -53250,13 +53128,13 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2822</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -53291,12 +53169,7 @@
       <c r="AA230" s="1">
         <v>0</v>
       </c>
-      <c r="AC230" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD230" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC230" s="3"/>
       <c r="AF230" s="1" t="s">
         <v>105</v>
       </c>
@@ -53346,7 +53219,7 @@
         <v>110</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="BB230" s="1">
         <v>6</v>
@@ -53355,7 +53228,7 @@
         <v>19</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="BE230" s="1" t="s">
         <v>113</v>
@@ -53367,7 +53240,7 @@
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>1214</v>
@@ -53379,7 +53252,7 @@
         <v>104</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53403,13 +53276,13 @@
         <v>1203</v>
       </c>
       <c r="CD230" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="CE230" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="CG230" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>1220</v>
@@ -53450,10 +53323,10 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>109</v>
@@ -53477,7 +53350,7 @@
         <v>105</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>61</v>
@@ -53522,7 +53395,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>124</v>
@@ -53534,7 +53407,7 @@
         <v>719</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="232" spans="1:87" x14ac:dyDescent="0.25">
@@ -53569,10 +53442,10 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>109</v>
@@ -53659,7 +53532,7 @@
         <v>719</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="233" spans="1:87" x14ac:dyDescent="0.25">
@@ -53676,7 +53549,7 @@
         <v>90</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -53688,16 +53561,16 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>109</v>
@@ -53766,7 +53639,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -53778,7 +53651,7 @@
         <v>719</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="234" spans="1:87" x14ac:dyDescent="0.25">
@@ -53813,10 +53686,10 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>109</v>
@@ -53840,7 +53713,7 @@
         <v>105</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>376</v>
@@ -53897,7 +53770,7 @@
         <v>719</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -53932,10 +53805,10 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>109</v>
@@ -53959,7 +53832,7 @@
         <v>105</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>376</v>
@@ -54016,7 +53889,7 @@
         <v>719</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="236" spans="1:87" x14ac:dyDescent="0.25">
@@ -54051,10 +53924,10 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>109</v>
@@ -54078,7 +53951,7 @@
         <v>105</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>376</v>
@@ -54135,7 +54008,7 @@
         <v>719</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54170,10 +54043,10 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>109</v>
@@ -54197,7 +54070,7 @@
         <v>105</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>376</v>
@@ -54254,7 +54127,7 @@
         <v>719</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="238" spans="1:87" x14ac:dyDescent="0.25">
@@ -54289,10 +54162,10 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>109</v>
@@ -54373,7 +54246,7 @@
         <v>719</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="239" spans="1:87" x14ac:dyDescent="0.25">
@@ -54408,10 +54281,10 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>109</v>
@@ -54492,7 +54365,7 @@
         <v>719</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="240" spans="1:87" x14ac:dyDescent="0.25">
@@ -54527,10 +54400,10 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>109</v>
@@ -54611,7 +54484,7 @@
         <v>719</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="241" spans="1:87" x14ac:dyDescent="0.25">
@@ -54646,10 +54519,10 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>109</v>
@@ -54730,7 +54603,7 @@
         <v>719</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="242" spans="1:87" x14ac:dyDescent="0.25">
@@ -54765,13 +54638,13 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="N242" s="1" t="s">
         <v>2856</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>2857</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2858</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -54800,12 +54673,7 @@
       <c r="AA242" s="1">
         <v>0</v>
       </c>
-      <c r="AC242" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD242" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC242" s="3"/>
       <c r="AF242" s="1" t="s">
         <v>105</v>
       </c>
@@ -54858,7 +54726,7 @@
         <v>19</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -54870,7 +54738,7 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="BI242" s="1" t="s">
         <v>1162</v>
@@ -54885,13 +54753,13 @@
         <v>101</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="BS242" s="3">
         <v>36306</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -54909,16 +54777,16 @@
         <v>110</v>
       </c>
       <c r="CC242" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="CD242" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="CD242" s="1" t="s">
+      <c r="CG242" s="1" t="s">
         <v>2864</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="CG242" s="1" t="s">
-        <v>2866</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>1168</v>
@@ -54959,13 +54827,13 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="N243" s="1" t="s">
         <v>2867</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2869</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -54994,12 +54862,7 @@
       <c r="AA243" s="1">
         <v>0</v>
       </c>
-      <c r="AC243" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD243" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC243" s="3"/>
       <c r="AF243" s="1" t="s">
         <v>105</v>
       </c>
@@ -55055,7 +54918,7 @@
         <v>19</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -55067,7 +54930,7 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
@@ -55076,7 +54939,7 @@
         <v>104</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -55094,16 +54957,16 @@
         <v>110</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -55144,13 +55007,13 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="N244" s="1" t="s">
         <v>2874</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>2875</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55182,12 +55045,7 @@
       <c r="AB244" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AC244" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD244" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC244" s="3"/>
       <c r="AF244" s="1" t="s">
         <v>105</v>
       </c>
@@ -55240,7 +55098,7 @@
         <v>19</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -55252,7 +55110,7 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1060</v>
@@ -55267,13 +55125,13 @@
         <v>101</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="BS244" s="3">
         <v>38234</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -55291,16 +55149,16 @@
         <v>110</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>1066</v>
@@ -55341,13 +55199,13 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="N245" s="1" t="s">
         <v>2884</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55376,12 +55234,7 @@
       <c r="AA245" s="1">
         <v>0</v>
       </c>
-      <c r="AC245" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>105</v>
       </c>
@@ -55437,7 +55290,7 @@
         <v>19</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -55449,7 +55302,7 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="BI245" s="1" t="s">
         <v>953</v>
@@ -55461,7 +55314,7 @@
         <v>104</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -55479,16 +55332,16 @@
         <v>110</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="CD245" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CG245" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="CG245" s="1" t="s">
-        <v>2893</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>959</v>
@@ -55529,13 +55382,13 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="N246" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -55567,12 +55420,7 @@
       <c r="AB246" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AC246" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AE246" s="3">
         <v>43611</v>
       </c>
@@ -55631,13 +55479,13 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
@@ -55646,7 +55494,7 @@
         <v>104</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -55664,16 +55512,16 @@
         <v>110</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="CE246" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="CD246" s="1" t="s">
+      <c r="CG246" s="1" t="s">
         <v>2901</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>2903</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -55714,13 +55562,13 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2904</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -55749,12 +55597,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>105</v>
       </c>
@@ -55807,7 +55650,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -55819,7 +55662,7 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="BI247" s="1" t="s">
         <v>953</v>
@@ -55834,13 +55677,13 @@
         <v>218</v>
       </c>
       <c r="BR247" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="BS247" s="3">
         <v>37069</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -55861,13 +55704,13 @@
         <v>760</v>
       </c>
       <c r="CD247" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>2911</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>959</v>
@@ -55908,13 +55751,13 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2914</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2916</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -55943,12 +55786,7 @@
       <c r="AA248" s="1">
         <v>0</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AF248" s="1" t="s">
         <v>105</v>
       </c>
@@ -56004,7 +55842,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -56016,7 +55854,7 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="BI248" s="1" t="s">
         <v>953</v>
@@ -56028,7 +55866,7 @@
         <v>104</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56046,16 +55884,16 @@
         <v>110</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CG248" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>959</v>
@@ -56096,16 +55934,16 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56141,7 +55979,7 @@
         <v>43403</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>105</v>
@@ -56192,7 +56030,7 @@
         <v>110</v>
       </c>
       <c r="AZ249" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="BB249" s="1">
         <v>6</v>
@@ -56201,7 +56039,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -56213,7 +56051,7 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
@@ -56222,7 +56060,7 @@
         <v>104</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56240,16 +56078,16 @@
         <v>110</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="CD249" s="1" t="s">
         <v>2078</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -56290,13 +56128,13 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2935</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56325,12 +56163,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2938</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>105</v>
       </c>
@@ -56377,7 +56210,7 @@
         <v>110</v>
       </c>
       <c r="AZ250" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BB250" s="1">
         <v>6</v>
@@ -56386,7 +56219,7 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -56398,10 +56231,10 @@
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BI250" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
@@ -56413,13 +56246,13 @@
         <v>218</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="BS250" s="3">
         <v>35125</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -56437,19 +56270,19 @@
         <v>110</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="CD250" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="CH250" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="CI250" s="1" t="s">
         <v>130</v>
@@ -56487,13 +56320,13 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56577,7 +56410,7 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
@@ -56586,7 +56419,7 @@
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -56604,13 +56437,13 @@
         <v>92</v>
       </c>
       <c r="CC251" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CG251" s="1" t="s">
         <v>130</v>
@@ -56654,13 +56487,13 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -56744,7 +56577,7 @@
         <v>19</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
@@ -56753,7 +56586,7 @@
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -56774,10 +56607,10 @@
         <v>554</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="CG252" s="1" t="s">
         <v>130</v>
@@ -56821,13 +56654,13 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -56860,7 +56693,7 @@
         <v>105</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>2217</v>
@@ -56911,7 +56744,7 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
@@ -56923,7 +56756,7 @@
         <v>159</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -56941,13 +56774,13 @@
         <v>110</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>978</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="CG253" s="1" t="s">
         <v>130</v>
@@ -56991,13 +56824,13 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57084,7 +56917,7 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
@@ -57093,7 +56926,7 @@
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57102,7 +56935,7 @@
         <v>0</v>
       </c>
       <c r="BZ254" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="CA254" s="1" t="s">
         <v>124</v>
@@ -57111,13 +56944,13 @@
         <v>110</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CG254" s="1" t="s">
         <v>130</v>
@@ -57155,7 +56988,7 @@
         <v>94</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>96</v>
@@ -57164,10 +56997,10 @@
         <v>248</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N255" s="1" t="s">
         <v>250</v>
@@ -57197,7 +57030,7 @@
         <v>42582</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>105</v>
@@ -57254,13 +57087,13 @@
         <v>0</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BI255" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
@@ -57302,10 +57135,10 @@
         <v>260</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -57325,7 +57158,7 @@
         <v>226</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>92</v>
@@ -57343,16 +57176,16 @@
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="Q256" s="3">
         <v>17060</v>
@@ -57385,13 +57218,13 @@
         <v>42628</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>138</v>
@@ -57436,22 +57269,22 @@
         <v>110</v>
       </c>
       <c r="AZ256" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="BB256" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC256" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD256" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="BH256" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2995</v>
-      </c>
-      <c r="BB256" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC256" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD256" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="BH256" s="1" t="s">
-        <v>2997</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2998</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
@@ -57460,7 +57293,7 @@
         <v>104</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57469,7 +57302,7 @@
         <v>0</v>
       </c>
       <c r="BZ256" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CA256" s="1" t="s">
         <v>124</v>
@@ -57484,13 +57317,13 @@
         <v>126</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH256" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>130</v>
@@ -57510,7 +57343,7 @@
         <v>226</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>110</v>
@@ -57528,16 +57361,16 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="Q257" s="3">
         <v>26864</v>
@@ -57567,7 +57400,7 @@
         <v>42735</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>105</v>
@@ -57621,10 +57454,10 @@
         <v>0</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
@@ -57636,13 +57469,13 @@
         <v>218</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BS257" s="3">
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -57663,16 +57496,16 @@
         <v>110</v>
       </c>
       <c r="CC257" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -57713,16 +57546,16 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="Q258" s="3">
         <v>25379</v>
@@ -57752,7 +57585,7 @@
         <v>39800</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>232</v>
@@ -57806,10 +57639,10 @@
         <v>0</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -57821,13 +57654,13 @@
         <v>716</v>
       </c>
       <c r="BR258" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BS258" s="3">
         <v>35915</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -57857,10 +57690,10 @@
         <v>432</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -57883,7 +57716,7 @@
         <v>90</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>110</v>
@@ -57895,22 +57728,22 @@
         <v>94</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="Q259" s="3">
         <v>17470</v>
@@ -57940,7 +57773,7 @@
         <v>43100</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>105</v>
@@ -57997,10 +57830,10 @@
         <v>0</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
@@ -58009,7 +57842,7 @@
         <v>104</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58033,16 +57866,16 @@
         <v>110</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58083,16 +57916,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="Q260" s="3">
         <v>23356</v>
@@ -58119,7 +57952,7 @@
         <v>43105</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>105</v>
@@ -58173,10 +58006,10 @@
         <v>0</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -58188,13 +58021,13 @@
         <v>101</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BS260" s="3">
         <v>34412</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -58212,16 +58045,16 @@
         <v>110</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="CD260" s="1" t="s">
         <v>2382</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58262,16 +58095,16 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="Q261" s="3">
         <v>17726</v>
@@ -58304,7 +58137,7 @@
         <v>43312</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>232</v>
@@ -58355,7 +58188,7 @@
         <v>110</v>
       </c>
       <c r="AZ261" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BB261" s="1">
         <v>0</v>
@@ -58364,10 +58197,10 @@
         <v>0</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -58376,7 +58209,7 @@
         <v>104</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58394,16 +58227,16 @@
         <v>110</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>916</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58444,16 +58277,16 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="Q262" s="3">
         <v>22645</v>
@@ -58480,13 +58313,13 @@
         <v>43298</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>61</v>
@@ -58534,13 +58367,13 @@
         <v>0</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BI262" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -58549,13 +58382,13 @@
         <v>101</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BS262" s="3">
         <v>35209</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -58564,7 +58397,7 @@
         <v>0</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>124</v>
@@ -58576,16 +58409,16 @@
         <v>1718</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>130</v>
@@ -58605,7 +58438,7 @@
         <v>90</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>92</v>
@@ -58617,22 +58450,22 @@
         <v>94</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="Q263" s="3">
         <v>17041</v>
@@ -58659,7 +58492,7 @@
         <v>42735</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>105</v>
@@ -58716,10 +58549,10 @@
         <v>0</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -58728,7 +58561,7 @@
         <v>104</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -58740,7 +58573,7 @@
         <v>109</v>
       </c>
       <c r="BZ263" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="CA263" s="1" t="s">
         <v>124</v>
@@ -58749,16 +58582,16 @@
         <v>110</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3073</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3074</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3075</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3076</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -58799,16 +58632,16 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="Q264" s="3">
         <v>30147</v>
@@ -58831,17 +58664,12 @@
       <c r="AA264" s="1">
         <v>0</v>
       </c>
-      <c r="AC264" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD264" s="1" t="s">
-        <v>2823</v>
-      </c>
+      <c r="AC264" s="3"/>
       <c r="AF264" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AG264" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH264" s="1" t="s">
         <v>376</v>
@@ -58889,10 +58717,10 @@
         <v>0</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
@@ -58904,13 +58732,13 @@
         <v>101</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BS264" s="3">
         <v>37124</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -58928,16 +58756,16 @@
         <v>110</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -58978,16 +58806,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="Q265" s="3">
         <v>17821</v>
@@ -59023,7 +58851,7 @@
         <v>43388</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>105</v>
@@ -59074,7 +58902,7 @@
         <v>110</v>
       </c>
       <c r="AZ265" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BB265" s="1">
         <v>0</v>
@@ -59083,10 +58911,10 @@
         <v>0</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -59095,7 +58923,7 @@
         <v>104</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59113,16 +58941,16 @@
         <v>110</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CE265" s="1" t="s">
         <v>501</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59136,10 +58964,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1273</v>
@@ -59154,7 +58982,7 @@
         <v>93</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1273</v>
@@ -59163,13 +58991,13 @@
         <v>787</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -59220,7 +59048,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -59256,7 +59084,7 @@
         <v>19</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BE266" s="1" t="s">
         <v>113</v>
@@ -59268,13 +59096,13 @@
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59301,10 +59129,10 @@
         <v>1100</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59342,16 +59170,16 @@
         <v>1602</v>
       </c>
       <c r="J267" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>3108</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>3110</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>3111</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -59438,7 +59266,7 @@
         <v>19</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>115</v>
@@ -59447,7 +59275,7 @@
         <v>118</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59456,7 +59284,7 @@
         <v>0</v>
       </c>
       <c r="BZ267" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="CA267" s="1" t="s">
         <v>124</v>
@@ -59468,10 +59296,10 @@
         <v>1264</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CG267" s="1" t="s">
         <v>130</v>
@@ -59488,10 +59316,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1273</v>
@@ -59506,7 +59334,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1273</v>
@@ -59515,13 +59343,13 @@
         <v>787</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -59572,7 +59400,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59608,7 +59436,7 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BE268" s="1" t="s">
         <v>113</v>
@@ -59620,13 +59448,13 @@
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -59647,16 +59475,16 @@
         <v>92</v>
       </c>
       <c r="CC268" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="CD268" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="CG268" s="1" t="s">
         <v>3124</v>
-      </c>
-      <c r="CD268" s="1" t="s">
-        <v>3125</v>
-      </c>
-      <c r="CE268" s="1" t="s">
-        <v>3126</v>
-      </c>
-      <c r="CG268" s="1" t="s">
-        <v>3127</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -59670,10 +59498,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1273</v>
@@ -59688,7 +59516,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1273</v>
@@ -59697,13 +59525,13 @@
         <v>787</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -59790,7 +59618,7 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BE269" s="1" t="s">
         <v>113</v>
@@ -59802,13 +59630,13 @@
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -59829,7 +59657,7 @@
         <v>110</v>
       </c>
       <c r="CC269" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="CD269" s="1" t="s">
         <v>595</v>
@@ -59838,7 +59666,7 @@
         <v>501</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -59852,10 +59680,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1273</v>
@@ -59870,7 +59698,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1273</v>
@@ -59879,13 +59707,13 @@
         <v>787</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -59939,7 +59767,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -59975,7 +59803,7 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BE270" s="1" t="s">
         <v>113</v>
@@ -59987,13 +59815,13 @@
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -60017,13 +59845,13 @@
         <v>485</v>
       </c>
       <c r="CD270" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CE270" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="CG270" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60037,10 +59865,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1273</v>
@@ -60055,7 +59883,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1273</v>
@@ -60064,13 +59892,13 @@
         <v>787</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -60157,7 +59985,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -60169,13 +59997,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -60196,16 +60024,16 @@
         <v>110</v>
       </c>
       <c r="CC271" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CD271" s="1" t="s">
         <v>606</v>
       </c>
       <c r="CE271" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60219,10 +60047,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1273</v>
@@ -60237,7 +60065,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1273</v>
@@ -60246,13 +60074,13 @@
         <v>787</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -60288,7 +60116,7 @@
         <v>105</v>
       </c>
       <c r="AG272" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="AH272" s="1" t="s">
         <v>1275</v>
@@ -60306,7 +60134,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60342,7 +60170,7 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BE272" s="1" t="s">
         <v>113</v>
@@ -60354,13 +60182,13 @@
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -60381,16 +60209,16 @@
         <v>110</v>
       </c>
       <c r="CC272" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CD272" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CG272" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60404,10 +60232,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1273</v>
@@ -60422,7 +60250,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1273</v>
@@ -60431,13 +60259,13 @@
         <v>787</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -60491,7 +60319,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60527,7 +60355,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -60539,13 +60367,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -60569,13 +60397,13 @@
         <v>1006</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -60589,10 +60417,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1273</v>
@@ -60607,7 +60435,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1273</v>
@@ -60616,13 +60444,13 @@
         <v>787</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -60676,7 +60504,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -60712,7 +60540,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -60724,13 +60552,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -60757,10 +60585,10 @@
         <v>2190</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -60774,10 +60602,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1273</v>
@@ -60792,7 +60620,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1273</v>
@@ -60801,13 +60629,13 @@
         <v>787</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="L275" s="1" t="s">
         <v>2329</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
@@ -60843,7 +60671,7 @@
         <v>105</v>
       </c>
       <c r="AG275" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="AH275" s="1" t="s">
         <v>1275</v>
@@ -60858,7 +60686,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -60891,19 +60719,19 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
@@ -60921,16 +60749,16 @@
         <v>110</v>
       </c>
       <c r="CC275" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="CD275" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="CE275" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="CG275" s="1" t="s">
         <v>3189</v>
-      </c>
-      <c r="CD275" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="CE275" s="1" t="s">
-        <v>3191</v>
-      </c>
-      <c r="CG275" s="1" t="s">
-        <v>3192</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -60944,10 +60772,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1273</v>
@@ -60962,7 +60790,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1273</v>
@@ -60971,19 +60799,19 @@
         <v>787</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="L276" s="1" t="s">
         <v>2337</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P276" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="Q276" s="3">
         <v>16452</v>
@@ -61061,19 +60889,19 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BG276" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -61094,16 +60922,16 @@
         <v>2256</v>
       </c>
       <c r="CC276" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="CD276" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="CE276" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="CG276" s="1" t="s">
         <v>3199</v>
-      </c>
-      <c r="CD276" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="CE276" s="1" t="s">
-        <v>3201</v>
-      </c>
-      <c r="CG276" s="1" t="s">
-        <v>3202</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61117,10 +60945,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1273</v>
@@ -61135,7 +60963,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1273</v>
@@ -61144,13 +60972,13 @@
         <v>787</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
@@ -61234,19 +61062,19 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
@@ -61267,13 +61095,13 @@
         <v>1217</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61287,10 +61115,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1273</v>
@@ -61305,7 +61133,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1273</v>
@@ -61314,13 +61142,13 @@
         <v>787</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
@@ -61371,7 +61199,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61407,7 +61235,7 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BE278" s="1" t="s">
         <v>113</v>
@@ -61419,13 +61247,13 @@
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61446,16 +61274,16 @@
         <v>92</v>
       </c>
       <c r="CC278" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="CG278" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61469,10 +61297,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1273</v>
@@ -61487,7 +61315,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1273</v>
@@ -61496,13 +61324,13 @@
         <v>787</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
@@ -61556,7 +61384,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -61592,7 +61420,7 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BE279" s="1" t="s">
         <v>113</v>
@@ -61604,13 +61432,13 @@
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -61631,16 +61459,16 @@
         <v>110</v>
       </c>
       <c r="CC279" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="CD279" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="CG279" s="1" t="s">
         <v>3227</v>
-      </c>
-      <c r="CD279" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3229</v>
-      </c>
-      <c r="CG279" s="1" t="s">
-        <v>3230</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -61654,10 +61482,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1273</v>
@@ -61672,7 +61500,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1273</v>
@@ -61681,13 +61509,13 @@
         <v>787</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
@@ -61741,7 +61569,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -61777,7 +61605,7 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BE280" s="1" t="s">
         <v>113</v>
@@ -61789,13 +61617,13 @@
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -61816,16 +61644,16 @@
         <v>110</v>
       </c>
       <c r="CC280" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="CG280" s="1" t="s">
         <v>3237</v>
-      </c>
-      <c r="CD280" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3239</v>
-      </c>
-      <c r="CG280" s="1" t="s">
-        <v>3240</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -61839,10 +61667,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1273</v>
@@ -61857,7 +61685,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1273</v>
@@ -61866,13 +61694,13 @@
         <v>787</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
@@ -61959,7 +61787,7 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BE281" s="1" t="s">
         <v>113</v>
@@ -61971,13 +61799,13 @@
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>122</v>
@@ -61998,16 +61826,16 @@
         <v>110</v>
       </c>
       <c r="CC281" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="CD281" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CE281" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG281" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>130</v>
@@ -62021,10 +61849,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1273</v>
@@ -62039,7 +61867,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1273</v>
@@ -62048,13 +61876,13 @@
         <v>787</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
@@ -62108,7 +61936,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62144,7 +61972,7 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BE282" s="1" t="s">
         <v>113</v>
@@ -62156,19 +61984,19 @@
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW282" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="BX282" s="1">
         <v>0</v>
@@ -62186,16 +62014,16 @@
         <v>110</v>
       </c>
       <c r="CC282" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CD282" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="CE282" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="CG282" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>130</v>
@@ -62209,10 +62037,10 @@
         <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1273</v>
@@ -62227,7 +62055,7 @@
         <v>93</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1273</v>
@@ -62236,13 +62064,13 @@
         <v>787</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>100</v>
@@ -62293,7 +62121,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62329,7 +62157,7 @@
         <v>19</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BE283" s="1" t="s">
         <v>113</v>
@@ -62341,13 +62169,13 @@
         <v>115</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>122</v>
@@ -62368,16 +62196,16 @@
         <v>110</v>
       </c>
       <c r="CC283" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="CE283" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="CG283" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -62391,10 +62219,10 @@
         <v>87</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1273</v>
@@ -62409,7 +62237,7 @@
         <v>93</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1273</v>
@@ -62418,13 +62246,13 @@
         <v>787</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>100</v>
@@ -62451,7 +62279,7 @@
         <v>0</v>
       </c>
       <c r="AG284" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="AH284" s="1" t="s">
         <v>376</v>
@@ -62466,7 +62294,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62496,7 +62324,7 @@
         <v>19</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="BE284" s="1" t="s">
         <v>113</v>
@@ -62508,13 +62336,13 @@
         <v>115</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>122</v>
@@ -62532,16 +62360,16 @@
         <v>110</v>
       </c>
       <c r="CC284" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="CD284" s="1" t="s">
         <v>304</v>
       </c>
       <c r="CE284" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="CG284" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -62555,10 +62383,10 @@
         <v>87</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1273</v>
@@ -62573,7 +62401,7 @@
         <v>93</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1273</v>
@@ -62582,13 +62410,13 @@
         <v>787</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>100</v>
@@ -62672,7 +62500,7 @@
         <v>19</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BE285" s="1" t="s">
         <v>113</v>
@@ -62684,13 +62512,13 @@
         <v>115</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="BM285" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>122</v>
@@ -62708,16 +62536,16 @@
         <v>110</v>
       </c>
       <c r="CC285" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="CD285" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="CE285" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="CG285" s="1" t="s">
         <v>3285</v>
-      </c>
-      <c r="CD285" s="1" t="s">
-        <v>3286</v>
-      </c>
-      <c r="CE285" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="CG285" s="1" t="s">
-        <v>3288</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>130</v>
@@ -62731,10 +62559,10 @@
         <v>87</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1273</v>
@@ -62749,7 +62577,7 @@
         <v>93</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1273</v>
@@ -62758,13 +62586,13 @@
         <v>787</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>100</v>
@@ -62851,7 +62679,7 @@
         <v>19</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="BE286" s="1" t="s">
         <v>113</v>
@@ -62863,13 +62691,13 @@
         <v>115</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="BM286" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>122</v>
@@ -62887,16 +62715,16 @@
         <v>110</v>
       </c>
       <c r="CC286" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="CD286" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="CE286" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="CG286" s="1" t="s">
         <v>3295</v>
-      </c>
-      <c r="CD286" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="CE286" s="1" t="s">
-        <v>3297</v>
-      </c>
-      <c r="CG286" s="1" t="s">
-        <v>3298</v>
       </c>
       <c r="CH286" s="1" t="s">
         <v>130</v>
@@ -62910,10 +62738,10 @@
         <v>87</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1273</v>
@@ -62928,7 +62756,7 @@
         <v>93</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1273</v>
@@ -62937,13 +62765,13 @@
         <v>787</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>100</v>
@@ -62952,7 +62780,7 @@
         <v>110</v>
       </c>
       <c r="Q287" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="R287" s="1" t="s">
         <v>136</v>
@@ -62994,7 +62822,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="AO287" s="1">
         <v>0</v>
@@ -63027,7 +62855,7 @@
         <v>19</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BE287" s="1" t="s">
         <v>113</v>
@@ -63039,13 +62867,13 @@
         <v>115</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>122</v>
@@ -63063,16 +62891,16 @@
         <v>110</v>
       </c>
       <c r="CC287" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="CD287" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="CE287" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="CG287" s="1" t="s">
         <v>3307</v>
-      </c>
-      <c r="CD287" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="CE287" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="CG287" s="1" t="s">
-        <v>3310</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>130</v>
@@ -63081,992 +62909,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="288" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J288" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K288" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="L288" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="M288" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N288" s="1" t="s">
-        <v>2171</v>
-      </c>
-      <c r="O288" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P288" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="Q288" s="3">
-        <v>27862</v>
-      </c>
-      <c r="R288" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S288" s="3">
-        <v>39630</v>
-      </c>
-      <c r="T288" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U288" s="3">
-        <v>41671</v>
-      </c>
-      <c r="Y288" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z288" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB288" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF288" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG288" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AH288" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="AJ288" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP288" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ288" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV288" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY288" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ288" s="1" t="s">
-        <v>2172</v>
-      </c>
-      <c r="BA288" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB288" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC288" s="1">
-        <v>19</v>
-      </c>
-      <c r="BD288" s="1" t="s">
-        <v>3312</v>
-      </c>
-      <c r="BE288" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF288" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG288" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH288" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="BM288" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BO288" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP288" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR288" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="BS288" s="3">
-        <v>37421</v>
-      </c>
-      <c r="BT288" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="BU288" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BW288" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BX288" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY288" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BZ288" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="CA288" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB288" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC288" s="1" t="s">
-        <v>2179</v>
-      </c>
-      <c r="CD288" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="CE288" s="1" t="s">
-        <v>2180</v>
-      </c>
-      <c r="CG288" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="CH288" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CI288" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="289" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J289" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K289" s="1" t="s">
-        <v>2743</v>
-      </c>
-      <c r="L289" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="M289" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N289" s="1" t="s">
-        <v>2745</v>
-      </c>
-      <c r="O289" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P289" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="Q289" s="3">
-        <v>29411</v>
-      </c>
-      <c r="R289" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S289" s="3">
-        <v>43009</v>
-      </c>
-      <c r="T289" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y289" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z289" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB289" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF289" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG289" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH289" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ289" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP289" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ289" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV289" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY289" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ289" s="1" t="s">
-        <v>2746</v>
-      </c>
-      <c r="BA289" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB289" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC289" s="1">
-        <v>19</v>
-      </c>
-      <c r="BD289" s="1" t="s">
-        <v>3316</v>
-      </c>
-      <c r="BE289" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF289" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG289" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH289" s="1" t="s">
-        <v>3317</v>
-      </c>
-      <c r="BM289" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BO289" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP289" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR289" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="BS289" s="3">
-        <v>37513</v>
-      </c>
-      <c r="BT289" s="1" t="s">
-        <v>2750</v>
-      </c>
-      <c r="BU289" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX289" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ289" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CA289" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB289" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC289" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="CD289" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CE289" s="1" t="s">
-        <v>2752</v>
-      </c>
-      <c r="CG289" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="CH289" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CI289" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="290" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F290" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="L290" s="1" t="s">
-        <v>2755</v>
-      </c>
-      <c r="M290" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N290" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="O290" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P290" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="Q290" s="3">
-        <v>32173</v>
-      </c>
-      <c r="R290" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S290" s="3">
-        <v>43009</v>
-      </c>
-      <c r="T290" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y290" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z290" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF290" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG290" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="AH290" s="1" t="s">
-        <v>2009</v>
-      </c>
-      <c r="AJ290" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP290" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ290" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV290" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY290" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA290" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB290" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC290" s="1">
-        <v>19</v>
-      </c>
-      <c r="BD290" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="BE290" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF290" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG290" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH290" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="BM290" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BO290" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR290" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="BS290" s="3">
-        <v>41024</v>
-      </c>
-      <c r="BT290" s="1" t="s">
-        <v>2761</v>
-      </c>
-      <c r="BU290" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX290" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ290" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CA290" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB290" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC290" s="1" t="s">
-        <v>2762</v>
-      </c>
-      <c r="CD290" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="CE290" s="1" t="s">
-        <v>2764</v>
-      </c>
-      <c r="CG290" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="CH290" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CI290" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="291" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J291" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K291" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="L291" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="M291" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N291" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="O291" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P291" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="Q291" s="3">
-        <v>29181</v>
-      </c>
-      <c r="R291" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S291" s="3">
-        <v>43405</v>
-      </c>
-      <c r="T291" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y291" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z291" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC291" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD291" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="AF291" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG291" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="AH291" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ291" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP291" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ291" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV291" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY291" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA291" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB291" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC291" s="1">
-        <v>19</v>
-      </c>
-      <c r="BD291" s="1" t="s">
-        <v>3324</v>
-      </c>
-      <c r="BE291" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF291" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG291" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH291" s="1" t="s">
-        <v>2268</v>
-      </c>
-      <c r="BM291" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BO291" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BR291" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="BS291" s="3">
-        <v>37069</v>
-      </c>
-      <c r="BT291" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="BU291" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX291" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ291" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CA291" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB291" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC291" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="CD291" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="CE291" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="CG291" s="1" t="s">
-        <v>2273</v>
-      </c>
-      <c r="CH291" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CI291" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="292" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J292" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K292" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>3110</v>
-      </c>
-      <c r="M292" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N292" s="1" t="s">
-        <v>3111</v>
-      </c>
-      <c r="O292" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P292" s="1" t="s">
-        <v>3325</v>
-      </c>
-      <c r="Q292" s="3">
-        <v>23180</v>
-      </c>
-      <c r="R292" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S292" s="3">
-        <v>43556</v>
-      </c>
-      <c r="T292" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y292" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z292" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB292" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF292" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG292" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH292" s="1" t="s">
-        <v>2217</v>
-      </c>
-      <c r="AI292" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ292" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP292" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ292" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV292" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY292" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA292" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB292" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC292" s="1">
-        <v>19</v>
-      </c>
-      <c r="BD292" s="1" t="s">
-        <v>3326</v>
-      </c>
-      <c r="BE292" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF292" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG292" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH292" s="1" t="s">
-        <v>3327</v>
-      </c>
-      <c r="BM292" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BT292" s="1" t="s">
-        <v>3113</v>
-      </c>
-      <c r="BU292" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BX292" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ292" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CA292" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB292" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC292" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="CD292" s="1" t="s">
-        <v>3115</v>
-      </c>
-      <c r="CE292" s="1" t="s">
-        <v>3116</v>
-      </c>
-      <c r="CG292" s="1" t="s">
-        <v>3328</v>
-      </c>
-      <c r="CH292" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CI292" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:CI287"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>